--- a/packages/ambre/tests/actual_expected/rule_extraction_wikipedia_custom_item_alphabet.expected.xlsx
+++ b/packages/ambre/tests/actual_expected/rule_extraction_wikipedia_custom_item_alphabet.expected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>antecedents_length</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>consequents_length</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +501,9 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,6 +529,9 @@
         <v>0.4</v>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
